--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,150 +491,320 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Minority Interest</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Stockholders Equity</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Gains Losses Not Affecting Retained Earnings</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Other Equity Adjustments</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Retained Earnings</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Additional Paid In Capital</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Capital Stock</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Common Stock</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Preferred Stock</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Total Liabilities Net Minority Interest</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Total Non Current Liabilities Net Minority Interest</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Other Non Current Liabilities</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Preferred Securities Outside Stock Equity</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Non Current Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Non Current Deferred Liabilities</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Non Current Deferred Revenue</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Non Current Deferred Taxes Liabilities</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Long Term Debt And Capital Lease Obligation</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Long Term Capital Lease Obligation</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Long Term Debt</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Long Term Provisions</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Current Liabilities</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Other Current Liabilities</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Current Deferred Liabilities</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Current Deferred Revenue</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Current Debt And Capital Lease Obligation</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Current Capital Lease Obligation</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Current Debt</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Other Current Borrowings</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Current Provisions</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Payables And Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Current Accrued Expenses</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Interest Payable</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Payables</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Total Tax Payable</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Total Assets</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Total Non Current Assets</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Other Non Current Assets</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Goodwill And Other Intangible Assets</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Other Intangible Assets</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Goodwill</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Net PPE</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>Accumulated Depreciation</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Gross PPE</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Leases</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Construction In Progress</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Other Properties</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Machinery Furniture Equipment</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Land And Improvements</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Properties</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Current Assets</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Other Current Assets</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Prepaid Assets</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Inventory</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Other Inventories</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Finished Goods</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Work In Process</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Raw Materials</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Receivables</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Accounts Receivable</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Cash Cash Equivalents And Short Term Investments</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Other Short Term Investments</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Cash And Cash Equivalents</t>
         </is>
@@ -678,93 +848,195 @@
         <v>15230612857.14</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>15217924000</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>16454371142.86</v>
       </c>
-      <c r="O2" t="n">
+      <c r="T2" t="n">
         <v>16454371142.86</v>
       </c>
-      <c r="P2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>22044187428.57</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="W2" t="n">
         <v>14200046142.86</v>
       </c>
-      <c r="R2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8297984285.71</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AE2" t="n">
         <v>3071458000</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AF2" t="n">
         <v>5226526285.71</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AG2" t="n">
         <v>1850761000</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AH2" t="n">
         <v>7844141285.71</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>1591659714.29</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AM2" t="n">
         <v>922905428.5700001</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AN2" t="n">
         <v>668754285.71</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
         <v>3763034714.29</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AU2" t="n">
         <v>695862285.71</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AV2" t="n">
         <v>2201489571.43</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AW2" t="n">
         <v>37274800285.71</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AX2" t="n">
         <v>28009683142.86</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>10217004857.14</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="BA2" t="n">
         <v>5865560857.14</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
         <v>14091632714.29</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="BD2" t="n">
         <v>-36464920000</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="BE2" t="n">
         <v>50483651428.57</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
         <v>888748571.4299999</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="BH2" t="n">
         <v>48941009857.14</v>
       </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
         <v>9265117142.860001</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
         <v>2203197285.71</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="BV2" t="n">
         <v>1857955428.57</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
         <v>1408061714.29</v>
       </c>
     </row>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,377 +436,237 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ordinary Shares Number</t>
+          <t>Tax Effect Of Unusual Items</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Share Issued</t>
+          <t>Tax Rate For Calcs</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total Debt</t>
+          <t>Normalized EBITDA</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tangible Book Value</t>
+          <t>Total Unusual Items</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Invested Capital</t>
+          <t>Total Unusual Items Excluding Goodwill</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Working Capital</t>
+          <t>Net Income From Continuing Operation Net Minority Interest</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Net Tangible Assets</t>
+          <t>Reconciled Depreciation</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Capital Lease Obligations</t>
+          <t>Reconciled Cost Of Revenue</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Common Stock Equity</t>
+          <t>EBITDA</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Total Capitalization</t>
+          <t>EBIT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Total Equity Gross Minority Interest</t>
+          <t>Net Interest Income</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Minority Interest</t>
+          <t>Interest Expense</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Stockholders Equity</t>
+          <t>Interest Income</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Gains Losses Not Affecting Retained Earnings</t>
+          <t>Normalized Income</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Other Equity Adjustments</t>
+          <t>Net Income From Continuing And Discontinued Operation</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Total Expenses</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Additional Paid In Capital</t>
+          <t>Total Operating Income As Reported</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Capital Stock</t>
+          <t>Diluted Average Shares</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Common Stock</t>
+          <t>Basic Average Shares</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Preferred Stock</t>
+          <t>Diluted EPS</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Total Liabilities Net Minority Interest</t>
+          <t>Basic EPS</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Total Non Current Liabilities Net Minority Interest</t>
+          <t>Diluted NI Availto Com Stockholders</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Other Non Current Liabilities</t>
+          <t>Net Income Common Stockholders</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Preferred Securities Outside Stock Equity</t>
+          <t>Net Income</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Non Current Accrued Expenses</t>
+          <t>Net Income Including Noncontrolling Interests</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Non Current Deferred Liabilities</t>
+          <t>Net Income Continuous Operations</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Non Current Deferred Revenue</t>
+          <t>Tax Provision</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Non Current Deferred Taxes Liabilities</t>
+          <t>Pretax Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Long Term Debt And Capital Lease Obligation</t>
+          <t>Other Income Expense</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Long Term Capital Lease Obligation</t>
+          <t>Other Non Operating Income Expenses</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Long Term Debt</t>
+          <t>Special Income Charges</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Long Term Provisions</t>
+          <t>Write Off</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Current Liabilities</t>
+          <t>Gain On Sale Of Security</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Other Current Liabilities</t>
+          <t>Net Non Operating Interest Income Expense</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Current Deferred Liabilities</t>
+          <t>Interest Expense Non Operating</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Current Deferred Revenue</t>
+          <t>Interest Income Non Operating</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Current Debt And Capital Lease Obligation</t>
+          <t>Operating Income</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Current Capital Lease Obligation</t>
+          <t>Operating Expense</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Current Debt</t>
+          <t>Research And Development</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Other Current Borrowings</t>
+          <t>Selling General And Administration</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Current Provisions</t>
+          <t>Selling And Marketing Expense</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Payables And Accrued Expenses</t>
+          <t>General And Administrative Expense</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Current Accrued Expenses</t>
+          <t>Other Gand A</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Interest Payable</t>
+          <t>Gross Profit</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Payables</t>
+          <t>Cost Of Revenue</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Total Tax Payable</t>
+          <t>Total Revenue</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Accounts Payable</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Total Assets</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Total Non Current Assets</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Other Non Current Assets</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Goodwill And Other Intangible Assets</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Other Intangible Assets</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Goodwill</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Net PPE</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Accumulated Depreciation</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>Gross PPE</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>Leases</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>Construction In Progress</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>Other Properties</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>Machinery Furniture Equipment</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>Land And Improvements</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Properties</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Current Assets</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>Other Current Assets</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>Prepaid Assets</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>Inventory</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>Other Inventories</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>Finished Goods</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>Work In Process</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>Raw Materials</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>Receivables</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>Accounts Receivable</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>Cash Cash Equivalents And Short Term Investments</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>Other Short Term Investments</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>Cash And Cash Equivalents</t>
+          <t>Operating Revenue</t>
         </is>
       </c>
     </row>
@@ -815,229 +675,143 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>807447081.29</v>
+        <v>-99479228.89</v>
       </c>
       <c r="C2" t="n">
-        <v>811136826.29</v>
+        <v>0.16</v>
       </c>
       <c r="D2" t="n">
-        <v>9889644000</v>
+        <v>4376373142.86</v>
       </c>
       <c r="E2" t="n">
-        <v>5000919142.86</v>
+        <v>-393272428.57</v>
       </c>
       <c r="F2" t="n">
-        <v>21113204571.43</v>
+        <v>-393272428.57</v>
       </c>
       <c r="G2" t="n">
-        <v>1420975857.14</v>
+        <v>-667179000</v>
       </c>
       <c r="H2" t="n">
-        <v>5000919142.86</v>
+        <v>3515145714.29</v>
       </c>
       <c r="I2" t="n">
-        <v>3994363428.57</v>
+        <v>5258684714.29</v>
       </c>
       <c r="J2" t="n">
-        <v>15217924000</v>
+        <v>3983100714.29</v>
       </c>
       <c r="K2" t="n">
-        <v>20444450285.71</v>
+        <v>467955000</v>
       </c>
       <c r="L2" t="n">
-        <v>15230612857.14</v>
+        <v>-1868298428.57</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1512362857.14</v>
       </c>
       <c r="N2" t="n">
-        <v>15217924000</v>
+        <v>328517428.57</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>-373385800.31</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-666144714.29</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>10437989571.43</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>16454371142.86</v>
+        <v>804207887.4299999</v>
       </c>
       <c r="T2" t="n">
-        <v>16454371142.86</v>
+        <v>804167316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-2.14</v>
       </c>
       <c r="V2" t="n">
-        <v>22044187428.57</v>
+        <v>-2.14</v>
       </c>
       <c r="W2" t="n">
-        <v>14200046142.86</v>
+        <v>-622854000</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-622854000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-666144714.29</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>-668807142.86</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>-669841428.5700001</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-1044407857.14</v>
       </c>
       <c r="AD2" t="n">
-        <v>8297984285.71</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>3071458000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>5226526285.71</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1850761000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>7844141285.71</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-1868298428.57</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1512362857.14</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>328517428.57</v>
       </c>
       <c r="AL2" t="n">
-        <v>1591659714.29</v>
+        <v>1205396000</v>
       </c>
       <c r="AM2" t="n">
-        <v>922905428.5700001</v>
+        <v>3706511571.43</v>
       </c>
       <c r="AN2" t="n">
-        <v>668754285.71</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
+        <v>3348068857.14</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1392654857.14</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>4911907571.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>3763034714.29</v>
+        <v>6731478000</v>
       </c>
       <c r="AU2" t="n">
-        <v>695862285.71</v>
+        <v>11643385571.43</v>
       </c>
       <c r="AV2" t="n">
-        <v>2201489571.43</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>37274800285.71</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>28009683142.86</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>10217004857.14</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>5865560857.14</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>14091632714.29</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>-36464920000</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>50483651428.57</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>888748571.4299999</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>48941009857.14</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>9265117142.860001</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>2203197285.71</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>1857955428.57</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1408061714.29</v>
+        <v>15629448714.29</v>
       </c>
     </row>
   </sheetData>
